--- a/data/regression_name_list535.xlsx
+++ b/data/regression_name_list535.xlsx
@@ -1436,7 +1436,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
